--- a/MAP/STAGE_05.xlsx
+++ b/MAP/STAGE_05.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game106\Desktop\3年生Team制作\MAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game106\Desktop\3年生Team制作\Project\MAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -417,29 +417,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,7 +724,7 @@
   <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12:AB12"/>
+      <selection activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.69921875" defaultRowHeight="79.95" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -735,13 +735,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="79.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="27"/>
+      <c r="A1" s="26"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="24"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="32"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
       <c r="J1" s="24"/>
@@ -776,13 +776,13 @@
       <c r="R2" s="3"/>
       <c r="S2" s="17"/>
       <c r="U2" s="9"/>
-      <c r="W2" s="26" t="s">
+      <c r="W2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
     </row>
     <row r="3" spans="1:28" ht="79.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="16"/>
@@ -826,13 +826,13 @@
       <c r="R4" s="3"/>
       <c r="S4" s="17"/>
       <c r="U4" s="5"/>
-      <c r="W4" s="26" t="s">
+      <c r="W4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
     </row>
     <row r="5" spans="1:28" ht="79.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="16"/>
@@ -856,7 +856,7 @@
       <c r="S5" s="17"/>
     </row>
     <row r="6" spans="1:28" ht="79.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="30"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="25"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -876,13 +876,13 @@
       <c r="R6" s="3"/>
       <c r="S6" s="17"/>
       <c r="U6" s="10"/>
-      <c r="W6" s="26" t="s">
+      <c r="W6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
     </row>
     <row r="7" spans="1:28" ht="79.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="16"/>
@@ -924,15 +924,15 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="25"/>
-      <c r="S8" s="31"/>
+      <c r="S8" s="30"/>
       <c r="U8" s="11"/>
-      <c r="W8" s="26" t="s">
+      <c r="W8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
     </row>
     <row r="9" spans="1:28" ht="79.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="16"/>
@@ -976,17 +976,17 @@
       <c r="R10" s="3"/>
       <c r="S10" s="17"/>
       <c r="U10" s="6"/>
-      <c r="W10" s="26" t="s">
+      <c r="W10" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
     </row>
     <row r="11" spans="1:28" ht="79.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="16"/>
-      <c r="B11" s="28"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="12" spans="1:28" ht="79.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="16"/>
-      <c r="B12" s="33"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1026,14 +1026,14 @@
       <c r="R12" s="25"/>
       <c r="S12" s="17"/>
       <c r="U12" s="12"/>
-      <c r="W12" s="26" t="s">
+      <c r="W12" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
     </row>
     <row r="13" spans="1:28" ht="79.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="16"/>
@@ -1077,16 +1077,16 @@
       <c r="R14" s="25"/>
       <c r="S14" s="17"/>
       <c r="U14" s="13"/>
-      <c r="W14" s="26" t="s">
+      <c r="W14" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
     </row>
     <row r="15" spans="1:28" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="29"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="20"/>
